--- a/docs/01-Registro de casos de prueba.xlsx
+++ b/docs/01-Registro de casos de prueba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VaneC\OneDrive\Documentos\GitHub\automation-cypress\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CDB9B8-AE4F-414B-B664-EAF69F34DCB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE7F88D-55B3-46D2-BC59-048E3E5C98DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEST CASE 001" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="91">
   <si>
     <t>TÍTULO DE LA PRUEBA</t>
   </si>
@@ -216,12 +216,6 @@
     <t>P04</t>
   </si>
   <si>
-    <t xml:space="preserve">Votor por un auto </t>
-  </si>
-  <si>
-    <t>Votar por un auto de la lista exitosamente (happy path)</t>
-  </si>
-  <si>
     <t>CP05</t>
   </si>
   <si>
@@ -232,12 +226,6 @@
   </si>
   <si>
     <t>Clic en algún auto de preferencia</t>
-  </si>
-  <si>
-    <t>Dejar un comentario y clic en el botón ''Votar''</t>
-  </si>
-  <si>
-    <t>La pagina registra el voto y aumenta el contrador, lo muestra en la tabla de debajo de los detalles del auto junto con el comnetario.</t>
   </si>
   <si>
     <t>Hacer clic en el botón registrar</t>
@@ -271,9 +259,6 @@
   </si>
   <si>
     <t>Ir a  la página  https://buggy.justtestit.org/</t>
-  </si>
-  <si>
-    <t>Ingresar usuario y clave y hacer clic en login</t>
   </si>
   <si>
     <t>Inicia sesión exitosamente</t>
@@ -352,6 +337,33 @@
   </si>
   <si>
     <t>Se muestra validación "UsernameExistsException: User already exists"</t>
+  </si>
+  <si>
+    <t>Se inicia sesión de forma exitosa.</t>
+  </si>
+  <si>
+    <t>Se muestra el listado de autos</t>
+  </si>
+  <si>
+    <t>Se muestra el auto seleccionado, correctamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar voto </t>
+  </si>
+  <si>
+    <t>Validar que el usuriario ha realizado su voto.</t>
+  </si>
+  <si>
+    <t>Validar mensaje "Thank you for your vote!"</t>
+  </si>
+  <si>
+    <t>Que se muestre el siguiente mensaje "Thank you for your vote!" cuando un el usuario ya haya votado.</t>
+  </si>
+  <si>
+    <t>Se muestra mensaje "Thank you for your vote!" correctamente cuando el usuario ya voto.</t>
+  </si>
+  <si>
+    <t>Ingresar usuario y clave y hacer clic en login usando los datos de entrada.</t>
   </si>
 </sst>
 </file>
@@ -2304,10 +2316,10 @@
         <v>35</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G13" s="38" t="s">
         <v>20</v>
@@ -2322,13 +2334,13 @@
         <v>2</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G14" s="38" t="s">
         <v>20</v>
@@ -2343,13 +2355,13 @@
         <v>3</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E15" s="28" t="s">
         <v>36</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G15" s="38" t="s">
         <v>20</v>
@@ -11799,7 +11811,7 @@
       <c r="B10" s="10"/>
       <c r="C10" s="6"/>
       <c r="D10" s="41" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="42" t="s">
@@ -11857,10 +11869,10 @@
         <v>35</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G13" s="38" t="s">
         <v>20</v>
@@ -11875,13 +11887,13 @@
         <v>2</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G14" s="38" t="s">
         <v>20</v>
@@ -20909,7 +20921,7 @@
   <dimension ref="A2:EX900"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -21259,7 +21271,7 @@
       <c r="B5" s="10"/>
       <c r="C5" s="6"/>
       <c r="D5" s="36" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>24</v>
@@ -21342,7 +21354,7 @@
       <c r="B10" s="10"/>
       <c r="C10" s="6"/>
       <c r="D10" s="41" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="41" t="s">
@@ -21400,10 +21412,10 @@
         <v>35</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G13" s="38" t="s">
         <v>20</v>
@@ -21418,13 +21430,13 @@
         <v>2</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G14" s="38" t="s">
         <v>20</v>
@@ -21439,13 +21451,13 @@
         <v>3</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G15" s="38" t="s">
         <v>20</v>
@@ -30461,9 +30473,9 @@
   </sheetPr>
   <dimension ref="A2:EX900"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -30879,7 +30891,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="47" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>9</v>
@@ -30900,13 +30912,13 @@
         <v>42</v>
       </c>
       <c r="E10" s="48" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F10" s="46" t="s">
         <v>34</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H10" s="37" t="s">
         <v>20</v>
@@ -30957,10 +30969,10 @@
         <v>35</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G13" s="38" t="s">
         <v>20</v>
@@ -30975,13 +30987,13 @@
         <v>2</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G14" s="38" t="s">
         <v>20</v>
@@ -30996,13 +31008,13 @@
         <v>3</v>
       </c>
       <c r="D15" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="28" t="s">
-        <v>63</v>
-      </c>
       <c r="F15" s="28" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G15" s="38" t="s">
         <v>20</v>
@@ -40017,9 +40029,9 @@
   </sheetPr>
   <dimension ref="A2:EX900"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -40368,16 +40380,16 @@
       <c r="B5" s="10"/>
       <c r="C5" s="6"/>
       <c r="D5" s="36" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H5" s="9">
         <v>45384</v>
@@ -40432,7 +40444,9 @@
       <c r="D9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="47" t="s">
+        <v>56</v>
+      </c>
       <c r="F9" s="5" t="s">
         <v>9</v>
       </c>
@@ -40449,9 +40463,11 @@
       <c r="B10" s="10"/>
       <c r="C10" s="6"/>
       <c r="D10" s="41" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="48" t="s">
+        <v>79</v>
+      </c>
       <c r="F10" s="42" t="s">
         <v>34</v>
       </c>
@@ -40459,7 +40475,7 @@
         <v>27</v>
       </c>
       <c r="H10" s="37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I10" s="15"/>
     </row>
@@ -40504,32 +40520,38 @@
         <v>1</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
-      <c r="F13" s="28"/>
+      <c r="F13" s="28" t="s">
+        <v>68</v>
+      </c>
       <c r="G13" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H13" s="28"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:154" ht="27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:154" ht="33" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="16"/>
       <c r="C14" s="26">
         <v>2</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="38"/>
+      <c r="F14" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="H14" s="28"/>
       <c r="I14" s="12"/>
     </row>
@@ -40540,47 +40562,59 @@
         <v>3</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="38"/>
+      <c r="F15" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="H15" s="28"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:154" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:154" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="16"/>
       <c r="C16" s="26">
         <v>4</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="38"/>
+      <c r="F16" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="H16" s="28"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="81" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="16"/>
       <c r="C17" s="26">
         <v>5</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="38"/>
+      <c r="F17" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="H17" s="28"/>
       <c r="I17" s="12"/>
     </row>
@@ -40623,9 +40657,9 @@
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="18"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
       <c r="I21" s="19"/>
     </row>
     <row r="22" spans="1:9" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -49419,8 +49453,9 @@
       <c r="H900" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:I2"/>
+    <mergeCell ref="F21:H21"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0" footer="0"/>
@@ -49500,7 +49535,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G13:G21</xm:sqref>
+          <xm:sqref>G13:G20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="4" operator="containsText" id="{DB774E24-298D-49A4-95CA-D13B0FBEA417}">
@@ -49553,7 +49588,7 @@
           <x14:formula1>
             <xm:f>STATUS!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>H10 G13:G21</xm:sqref>
+          <xm:sqref>H10 G13:G20</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
